--- a/clothing_data.xlsx
+++ b/clothing_data.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="31" uniqueCount="22">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="41" uniqueCount="27">
   <si>
     <t>image_path</t>
   </si>
@@ -49,6 +49,12 @@
     <t>static/images/bottoms/bottom2.png</t>
   </si>
   <si>
+    <t>static/images/tops/top3.png</t>
+  </si>
+  <si>
+    <t>static/images/shoes/shoe2.png</t>
+  </si>
+  <si>
     <t>top</t>
   </si>
   <si>
@@ -73,6 +79,12 @@
     <t>Adidas</t>
   </si>
   <si>
+    <t>j</t>
+  </si>
+  <si>
+    <t>adidas</t>
+  </si>
+  <si>
     <t>Sweater</t>
   </si>
   <si>
@@ -80,6 +92,9 @@
   </si>
   <si>
     <t>Hose</t>
+  </si>
+  <si>
+    <t>freiwillig</t>
   </si>
 </sst>
 </file>
@@ -437,7 +452,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:F6"/>
+  <dimension ref="A1:F8"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -468,16 +483,16 @@
         <v>6</v>
       </c>
       <c r="B2" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="C2" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="D2" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="E2" t="s">
-        <v>19</v>
+        <v>23</v>
       </c>
       <c r="F2">
         <v>1</v>
@@ -488,16 +503,16 @@
         <v>7</v>
       </c>
       <c r="B3" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="C3" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="D3" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="E3" t="s">
-        <v>19</v>
+        <v>23</v>
       </c>
       <c r="F3">
         <v>2</v>
@@ -508,16 +523,16 @@
         <v>8</v>
       </c>
       <c r="B4" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="C4" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="D4" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="E4" t="s">
-        <v>20</v>
+        <v>24</v>
       </c>
       <c r="F4">
         <v>3</v>
@@ -528,16 +543,16 @@
         <v>9</v>
       </c>
       <c r="B5" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="C5" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="D5" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="E5" t="s">
-        <v>21</v>
+        <v>25</v>
       </c>
       <c r="F5">
         <v>4</v>
@@ -548,19 +563,59 @@
         <v>10</v>
       </c>
       <c r="B6" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="C6" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="D6" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="E6" t="s">
-        <v>21</v>
+        <v>25</v>
       </c>
       <c r="F6">
         <v>5</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6">
+      <c r="A7" t="s">
+        <v>11</v>
+      </c>
+      <c r="B7" t="s">
+        <v>13</v>
+      </c>
+      <c r="C7" t="s">
+        <v>16</v>
+      </c>
+      <c r="D7" t="s">
+        <v>21</v>
+      </c>
+      <c r="E7" t="s">
+        <v>21</v>
+      </c>
+      <c r="F7">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6">
+      <c r="A8" t="s">
+        <v>12</v>
+      </c>
+      <c r="B8" t="s">
+        <v>14</v>
+      </c>
+      <c r="C8" t="s">
+        <v>16</v>
+      </c>
+      <c r="D8" t="s">
+        <v>22</v>
+      </c>
+      <c r="E8" t="s">
+        <v>26</v>
+      </c>
+      <c r="F8">
+        <v>7</v>
       </c>
     </row>
   </sheetData>
